--- a/update_db/old-category.xlsx
+++ b/update_db/old-category.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>available</t>
   </si>
@@ -419,6 +419,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>/catalog/braslety_s_molitvoy_iz_busin</t>
   </si>
 </sst>
 </file>
@@ -752,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,7 +774,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -797,7 +800,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -822,8 +825,11 @@
       <c r="H2" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -848,8 +854,12 @@
       <c r="H3" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J26" si="0">"/catalog/"&amp;D3</f>
+        <v>/catalog/pravoslavnye_braslety_na_nitke</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -874,8 +884,12 @@
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_braslety_na_ruku</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45</v>
       </c>
@@ -900,8 +914,12 @@
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/busini_podveski</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -926,8 +944,12 @@
       <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_businy</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -952,8 +974,12 @@
       <c r="H7" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_ikony_s_molitvoy</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -978,8 +1004,12 @@
       <c r="H8" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/ohrannye_kolyca</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1004,8 +1034,12 @@
       <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/golgofskie_krestiki</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1030,8 +1064,12 @@
       <c r="H10" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_natelynye_krestiki</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1056,8 +1094,12 @@
       <c r="H11" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_ladanki</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1082,8 +1124,12 @@
       <c r="H12" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_loghki</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1108,8 +1154,12 @@
       <c r="H13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/moscheviki_i_skladni_na_sheyu</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>33</v>
       </c>
@@ -1134,8 +1184,12 @@
       <c r="H14" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/imennye_obrazki</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1160,8 +1214,12 @@
       <c r="H15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_boghyey_materi</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43</v>
       </c>
@@ -1186,8 +1244,12 @@
       <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_vladimirskoi_boghyey_materi</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>44</v>
       </c>
@@ -1212,8 +1274,12 @@
       <c r="H17" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_georgii_pobedonosec</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1238,8 +1304,12 @@
       <c r="H18" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_kazanskoy_boghyey_materi</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1264,8 +1334,12 @@
       <c r="H19" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_matrony</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -1290,8 +1364,12 @@
       <c r="H20" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_mihail_arhangel</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -1316,8 +1394,12 @@
       <c r="H21" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/obrazki_svyatix</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -1342,8 +1424,12 @@
       <c r="H22" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_obrazki</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1368,8 +1454,12 @@
       <c r="H23" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/mughskie_pravoslavnye_chetki</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -1394,8 +1484,12 @@
       <c r="H24" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_serygi</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -1420,8 +1514,12 @@
       <c r="H25" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/pravoslavnye_cepi</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -1445,6 +1543,10 @@
       </c>
       <c r="H26" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>/catalog/shnurki_i_gaytany</v>
       </c>
     </row>
   </sheetData>
